--- a/data/codebook-main-step2step3.xlsx
+++ b/data/codebook-main-step2step3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="117">
   <si>
     <t>row_id</t>
   </si>
@@ -304,27 +304,6 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>https://doi.org/10.1177%2F0956797619841265</t>
-  </si>
-  <si>
-    <t>Kievit</t>
-  </si>
-  <si>
-    <t>gender (boys/girls)</t>
-  </si>
-  <si>
-    <t>Wechsler Abbreviated Scale of Intelligence</t>
-  </si>
-  <si>
-    <t>"With our current model specification and sample size; we had 73% power to detect a small coupling effect (r = .1; as defined by Gignac &amp; Szodorai; 2016) but effectively 100% power to detect intermediate (r = .2) and large (r = .3) effects."</t>
-  </si>
-  <si>
-    <t>Only measurement invariance is mentioned but nothing else. "As before; a multigroup model with gender as the grouping factor provided no evidence for differences". They also have multiple waves; but as far as I can see they only compare the model fit across the three waves; without testing for actual differences in vocabulary or matrix reasoning between these waves. MI-test: "As before; we imposed measurement invariance for the g-factor model across occasions." The authors also state in their limitations/future research that fitting a MI model over time would be better.</t>
-  </si>
-  <si>
-    <t>raw data and code available on OSF. Code for MI testing worked. The level at which MI hold mostly refers to the structural part of the model (no measurement part is included), and thus we coded it as partial.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1177%2F0956797619867939</t>
   </si>
   <si>
@@ -588,7 +567,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BG42" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BG41" displayName="Table_1" id="1">
   <tableColumns count="59">
     <tableColumn name="row_id" id="1"/>
     <tableColumn name="article_id" id="2"/>
@@ -1413,7 +1392,7 @@
         <v>1.0</v>
       </c>
       <c r="L4" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>70</v>
@@ -1488,7 +1467,7 @@
         <v>0.0</v>
       </c>
       <c r="AM4" s="8">
-        <v>5.0</v>
+        <v>99.0</v>
       </c>
       <c r="AN4" s="8" t="s">
         <v>79</v>
@@ -1652,8 +1631,8 @@
       <c r="AL5" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM5" s="8" t="s">
-        <v>64</v>
+      <c r="AM5" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN5" s="9"/>
       <c r="AO5" s="6">
@@ -1822,7 +1801,7 @@
         <v>0.0</v>
       </c>
       <c r="AM6" s="8">
-        <v>5.0</v>
+        <v>99.0</v>
       </c>
       <c r="AN6" s="8" t="s">
         <v>84</v>
@@ -1993,7 +1972,7 @@
         <v>0.0</v>
       </c>
       <c r="AM7" s="8">
-        <v>5.0</v>
+        <v>99.0</v>
       </c>
       <c r="AN7" s="8" t="s">
         <v>84</v>
@@ -2168,7 +2147,7 @@
         <v>0.0</v>
       </c>
       <c r="AM8" s="8">
-        <v>5.0</v>
+        <v>99.0</v>
       </c>
       <c r="AN8" s="8" t="s">
         <v>84</v>
@@ -2341,7 +2320,7 @@
         <v>0.0</v>
       </c>
       <c r="AM9" s="8">
-        <v>5.0</v>
+        <v>99.0</v>
       </c>
       <c r="AN9" s="8" t="s">
         <v>84</v>
@@ -2435,7 +2414,7 @@
         <v>1.0</v>
       </c>
       <c r="L10" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>70</v>
@@ -2510,7 +2489,7 @@
         <v>0.0</v>
       </c>
       <c r="AM10" s="8">
-        <v>5.0</v>
+        <v>99.0</v>
       </c>
       <c r="AN10" s="8" t="s">
         <v>84</v>
@@ -2674,8 +2653,8 @@
       <c r="AL11" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM11" s="8" t="s">
-        <v>64</v>
+      <c r="AM11" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN11" s="9"/>
       <c r="AO11" s="6">
@@ -2843,8 +2822,8 @@
       <c r="AL12" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM12" s="8" t="s">
-        <v>64</v>
+      <c r="AM12" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN12" s="9"/>
       <c r="AO12" s="6">
@@ -3012,8 +2991,8 @@
       <c r="AL13" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM13" s="8" t="s">
-        <v>64</v>
+      <c r="AM13" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN13" s="9"/>
       <c r="AO13" s="6">
@@ -3186,7 +3165,7 @@
         <v>0.0</v>
       </c>
       <c r="AM14" s="8">
-        <v>5.0</v>
+        <v>99.0</v>
       </c>
       <c r="AN14" s="8" t="s">
         <v>84</v>
@@ -3359,7 +3338,7 @@
         <v>0.0</v>
       </c>
       <c r="AM15" s="8">
-        <v>5.0</v>
+        <v>99.0</v>
       </c>
       <c r="AN15" s="8" t="s">
         <v>84</v>
@@ -3453,7 +3432,7 @@
         <v>1.0</v>
       </c>
       <c r="L16" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>70</v>
@@ -3527,8 +3506,8 @@
       <c r="AL16" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM16" s="8" t="s">
-        <v>64</v>
+      <c r="AM16" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN16" s="9"/>
       <c r="AO16" s="6">
@@ -3690,8 +3669,8 @@
       <c r="AL17" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM17" s="8" t="s">
-        <v>64</v>
+      <c r="AM17" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN17" s="9"/>
       <c r="AO17" s="6">
@@ -3859,8 +3838,8 @@
       <c r="AL18" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM18" s="8" t="s">
-        <v>64</v>
+      <c r="AM18" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN18" s="9"/>
       <c r="AO18" s="6">
@@ -4028,8 +4007,8 @@
       <c r="AL19" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM19" s="8" t="s">
-        <v>64</v>
+      <c r="AM19" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN19" s="9"/>
       <c r="AO19" s="6">
@@ -4201,8 +4180,8 @@
       <c r="AL20" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM20" s="8" t="s">
-        <v>64</v>
+      <c r="AM20" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN20" s="9"/>
       <c r="AO20" s="6">
@@ -4372,8 +4351,8 @@
       <c r="AL21" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM21" s="8" t="s">
-        <v>64</v>
+      <c r="AM21" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN21" s="9"/>
       <c r="AO21" s="6">
@@ -4465,7 +4444,7 @@
         <v>1.0</v>
       </c>
       <c r="L22" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>70</v>
@@ -4539,8 +4518,8 @@
       <c r="AL22" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM22" s="8" t="s">
-        <v>64</v>
+      <c r="AM22" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN22" s="9"/>
       <c r="AO22" s="6">
@@ -4702,8 +4681,8 @@
       <c r="AL23" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM23" s="8" t="s">
-        <v>64</v>
+      <c r="AM23" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN23" s="9"/>
       <c r="AO23" s="6">
@@ -4871,8 +4850,8 @@
       <c r="AL24" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM24" s="8" t="s">
-        <v>64</v>
+      <c r="AM24" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN24" s="9"/>
       <c r="AO24" s="6">
@@ -5040,8 +5019,8 @@
       <c r="AL25" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM25" s="8" t="s">
-        <v>64</v>
+      <c r="AM25" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN25" s="9"/>
       <c r="AO25" s="6">
@@ -5213,8 +5192,8 @@
       <c r="AL26" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM26" s="8" t="s">
-        <v>64</v>
+      <c r="AM26" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN26" s="9"/>
       <c r="AO26" s="6">
@@ -5384,8 +5363,8 @@
       <c r="AL27" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM27" s="8" t="s">
-        <v>64</v>
+      <c r="AM27" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN27" s="9"/>
       <c r="AO27" s="6">
@@ -5477,7 +5456,7 @@
         <v>1.0</v>
       </c>
       <c r="L28" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>70</v>
@@ -5551,8 +5530,8 @@
       <c r="AL28" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM28" s="8" t="s">
-        <v>64</v>
+      <c r="AM28" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN28" s="9"/>
       <c r="AO28" s="6">
@@ -5714,8 +5693,8 @@
       <c r="AL29" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM29" s="8" t="s">
-        <v>64</v>
+      <c r="AM29" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN29" s="9"/>
       <c r="AO29" s="6">
@@ -5883,8 +5862,8 @@
       <c r="AL30" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM30" s="8" t="s">
-        <v>64</v>
+      <c r="AM30" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN30" s="9"/>
       <c r="AO30" s="6">
@@ -6052,8 +6031,8 @@
       <c r="AL31" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM31" s="8" t="s">
-        <v>64</v>
+      <c r="AM31" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN31" s="9"/>
       <c r="AO31" s="6">
@@ -6225,8 +6204,8 @@
       <c r="AL32" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM32" s="8" t="s">
-        <v>64</v>
+      <c r="AM32" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN32" s="9"/>
       <c r="AO32" s="6">
@@ -6396,8 +6375,8 @@
       <c r="AL33" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM33" s="8" t="s">
-        <v>64</v>
+      <c r="AM33" s="8">
+        <v>99.0</v>
       </c>
       <c r="AN33" s="9"/>
       <c r="AO33" s="6">
@@ -6766,13 +6745,13 @@
     </row>
     <row r="36">
       <c r="A36" s="6">
-        <v>945.0</v>
+        <v>1134.0</v>
       </c>
       <c r="B36" s="6">
-        <v>351.0</v>
+        <v>710.0</v>
       </c>
       <c r="C36" s="6">
-        <v>230.0</v>
+        <v>269.0</v>
       </c>
       <c r="D36" s="6">
         <v>1.0</v>
@@ -6799,13 +6778,13 @@
         <v>1.0</v>
       </c>
       <c r="L36" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>70</v>
+        <v>1.0</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O36" s="6">
         <v>1.0</v>
@@ -6814,34 +6793,34 @@
         <v>1.0</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R36" s="6">
         <v>0.0</v>
       </c>
-      <c r="S36" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T36" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="U36" s="8" t="s">
-        <v>64</v>
+      <c r="S36" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="T36" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="U36" s="8">
+        <v>2.0</v>
       </c>
       <c r="V36" s="8">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="W36" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X36" s="8">
-        <v>227.0</v>
-      </c>
-      <c r="Y36" s="8">
-        <v>108.0</v>
-      </c>
-      <c r="Z36" s="8">
-        <v>119.0</v>
+        <v>1500.0</v>
+      </c>
+      <c r="Y36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z36" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -6861,38 +6840,36 @@
       <c r="AJ36" s="6">
         <v>1.0</v>
       </c>
-      <c r="AK36" s="8" t="s">
-        <v>64</v>
+      <c r="AK36" s="8">
+        <v>1.0</v>
       </c>
       <c r="AL36" s="8">
         <v>1.0</v>
       </c>
-      <c r="AM36" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN36" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="AM36" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="AN36" s="9"/>
       <c r="AO36" s="6">
-        <v>945.0</v>
-      </c>
-      <c r="AP36" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="AQ36" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="AR36" s="13">
+        <v>1134.0</v>
+      </c>
+      <c r="AP36" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AQ36" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AR36" s="10">
         <v>1.0</v>
       </c>
       <c r="AS36" s="13">
-        <v>227.0</v>
+        <v>1500.0</v>
       </c>
       <c r="AT36" s="13">
-        <v>98.0</v>
-      </c>
-      <c r="AU36" s="13">
-        <v>129.0</v>
+        <v>759.0</v>
+      </c>
+      <c r="AU36" s="16">
+        <v>741.0</v>
       </c>
       <c r="AV36" s="10"/>
       <c r="AW36" s="10"/>
@@ -6901,188 +6878,206 @@
         <v>1.0</v>
       </c>
       <c r="AZ36" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA36" s="10">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB36" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="BC36" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD36" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BE36" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF36" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG36" s="10" t="s">
-        <v>64</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="BC36" s="10"/>
+      <c r="BD36" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="BE36" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="BF36" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="BG36" s="10"/>
     </row>
     <row r="37">
       <c r="A37" s="6">
-        <v>1134.0</v>
+        <v>1144.0</v>
       </c>
       <c r="B37" s="6">
-        <v>710.0</v>
+        <v>711.0</v>
       </c>
       <c r="C37" s="6">
-        <v>269.0</v>
+        <v>270.0</v>
       </c>
       <c r="D37" s="6">
         <v>1.0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" s="6">
         <v>2019.0</v>
       </c>
       <c r="G37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H37" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="K37" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L37" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M37" s="8" t="s">
+      <c r="O37" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P37" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="Q37" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O37" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="P37" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="R37" s="6">
         <v>0.0</v>
       </c>
       <c r="S37" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="T37" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="U37" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W37" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="X37" s="8">
+        <v>1263.0</v>
+      </c>
+      <c r="Y37" s="8">
+        <v>59.0</v>
+      </c>
+      <c r="Z37" s="8">
+        <v>232.0</v>
+      </c>
+      <c r="AA37" s="8">
+        <v>259.0</v>
+      </c>
+      <c r="AB37" s="8">
+        <v>243.0</v>
+      </c>
+      <c r="AC37" s="8">
+        <v>104.0</v>
+      </c>
+      <c r="AD37" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="AE37" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="AF37" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AG37" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="AH37" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="AI37" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="AJ37" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AK37" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AL37" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AM37" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="AN37" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO37" s="6">
+        <v>1144.0</v>
+      </c>
+      <c r="AP37" s="10">
         <v>0.0</v>
       </c>
-      <c r="T37" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="U37" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="V37" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="W37" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="X37" s="8">
-        <v>1500.0</v>
-      </c>
-      <c r="Y37" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z37" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE37" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF37" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AK37" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AL37" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AM37" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="AN37" s="9"/>
-      <c r="AO37" s="6">
-        <v>1134.0</v>
-      </c>
-      <c r="AP37" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="AQ37" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="AR37" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="AS37" s="13">
-        <v>1500.0</v>
-      </c>
-      <c r="AT37" s="13">
-        <v>759.0</v>
-      </c>
-      <c r="AU37" s="16">
-        <v>741.0</v>
-      </c>
-      <c r="AV37" s="10"/>
-      <c r="AW37" s="10"/>
-      <c r="AX37" s="10"/>
+      <c r="AQ37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX37" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="AY37" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="AZ37" s="10">
         <v>0.0</v>
       </c>
-      <c r="BA37" s="10">
-        <v>0.0</v>
+      <c r="AZ37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA37" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="BB37" s="10">
         <v>0.0</v>
       </c>
-      <c r="BC37" s="10"/>
+      <c r="BC37" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="BD37" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="BE37" s="10">
         <v>0.0</v>
       </c>
-      <c r="BF37" s="10">
-        <v>0.0</v>
+      <c r="BE37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF37" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="BG37" s="10"/>
     </row>
     <row r="38">
       <c r="A38" s="6">
-        <v>1144.0</v>
+        <v>1145.0</v>
       </c>
       <c r="B38" s="6">
         <v>711.0</v>
@@ -7094,13 +7089,13 @@
         <v>1.0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F38" s="6">
         <v>2019.0</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H38" s="8">
         <v>7.0</v>
@@ -7121,7 +7116,7 @@
         <v>70</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O38" s="6">
         <v>1.0</v>
@@ -7130,10 +7125,10 @@
         <v>1.0</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R38" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S38" s="8">
         <v>2.0</v>
@@ -7169,22 +7164,22 @@
         <v>104.0</v>
       </c>
       <c r="AD38" s="8">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="AE38" s="8">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="AF38" s="8">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="AG38" s="8">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AH38" s="8">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="AI38" s="8">
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="AJ38" s="6">
         <v>1.0</v>
@@ -7199,10 +7194,10 @@
         <v>2.0</v>
       </c>
       <c r="AN38" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AO38" s="6">
-        <v>1144.0</v>
+        <v>1145.0</v>
       </c>
       <c r="AP38" s="10">
         <v>0.0</v>
@@ -7244,7 +7239,7 @@
         <v>0.0</v>
       </c>
       <c r="BC38" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="BD38" s="10">
         <v>0.0</v>
@@ -7259,7 +7254,7 @@
     </row>
     <row r="39">
       <c r="A39" s="6">
-        <v>1145.0</v>
+        <v>1146.0</v>
       </c>
       <c r="B39" s="6">
         <v>711.0</v>
@@ -7271,13 +7266,13 @@
         <v>1.0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F39" s="6">
         <v>2019.0</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H39" s="8">
         <v>7.0</v>
@@ -7298,7 +7293,7 @@
         <v>70</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O39" s="6">
         <v>1.0</v>
@@ -7307,10 +7302,10 @@
         <v>1.0</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R39" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S39" s="8">
         <v>2.0</v>
@@ -7346,22 +7341,22 @@
         <v>104.0</v>
       </c>
       <c r="AD39" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="AE39" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="AF39" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="AG39" s="8">
         <v>0.88</v>
       </c>
-      <c r="AE39" s="8">
-        <v>0.91</v>
-      </c>
-      <c r="AF39" s="8">
-        <v>0.92</v>
-      </c>
-      <c r="AG39" s="8">
-        <v>0.9</v>
-      </c>
       <c r="AH39" s="8">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="AI39" s="8">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="AJ39" s="6">
         <v>1.0</v>
@@ -7376,10 +7371,10 @@
         <v>2.0</v>
       </c>
       <c r="AN39" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AO39" s="6">
-        <v>1145.0</v>
+        <v>1146.0</v>
       </c>
       <c r="AP39" s="10">
         <v>0.0</v>
@@ -7421,7 +7416,7 @@
         <v>0.0</v>
       </c>
       <c r="BC39" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="BD39" s="10">
         <v>0.0</v>
@@ -7436,7 +7431,7 @@
     </row>
     <row r="40">
       <c r="A40" s="6">
-        <v>1146.0</v>
+        <v>1147.0</v>
       </c>
       <c r="B40" s="6">
         <v>711.0</v>
@@ -7448,13 +7443,13 @@
         <v>1.0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F40" s="6">
         <v>2019.0</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H40" s="8">
         <v>7.0</v>
@@ -7475,7 +7470,7 @@
         <v>70</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O40" s="6">
         <v>1.0</v>
@@ -7484,10 +7479,10 @@
         <v>1.0</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R40" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S40" s="8">
         <v>2.0</v>
@@ -7523,22 +7518,22 @@
         <v>104.0</v>
       </c>
       <c r="AD40" s="8">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AE40" s="8">
-        <v>0.86</v>
+        <v>0.59</v>
       </c>
       <c r="AF40" s="8">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="AG40" s="8">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="AH40" s="8">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AI40" s="8">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="AJ40" s="6">
         <v>1.0</v>
@@ -7553,10 +7548,10 @@
         <v>2.0</v>
       </c>
       <c r="AN40" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AO40" s="6">
-        <v>1146.0</v>
+        <v>1147.0</v>
       </c>
       <c r="AP40" s="10">
         <v>0.0</v>
@@ -7598,7 +7593,7 @@
         <v>0.0</v>
       </c>
       <c r="BC40" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="BD40" s="10">
         <v>0.0</v>
@@ -7613,7 +7608,7 @@
     </row>
     <row r="41">
       <c r="A41" s="6">
-        <v>1147.0</v>
+        <v>1148.0</v>
       </c>
       <c r="B41" s="6">
         <v>711.0</v>
@@ -7625,13 +7620,13 @@
         <v>1.0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F41" s="6">
         <v>2019.0</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H41" s="8">
         <v>7.0</v>
@@ -7652,7 +7647,7 @@
         <v>70</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O41" s="6">
         <v>1.0</v>
@@ -7661,10 +7656,10 @@
         <v>1.0</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R41" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S41" s="8">
         <v>2.0</v>
@@ -7700,22 +7695,22 @@
         <v>104.0</v>
       </c>
       <c r="AD41" s="8">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="AE41" s="8">
-        <v>0.59</v>
+        <v>0.89</v>
       </c>
       <c r="AF41" s="8">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="AG41" s="8">
-        <v>0.91</v>
+        <v>0.61</v>
       </c>
       <c r="AH41" s="8">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="AI41" s="8">
-        <v>0.94</v>
+        <v>0.88</v>
       </c>
       <c r="AJ41" s="6">
         <v>1.0</v>
@@ -7730,10 +7725,10 @@
         <v>2.0</v>
       </c>
       <c r="AN41" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AO41" s="6">
-        <v>1147.0</v>
+        <v>1148.0</v>
       </c>
       <c r="AP41" s="10">
         <v>0.0</v>
@@ -7775,7 +7770,7 @@
         <v>0.0</v>
       </c>
       <c r="BC41" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="BD41" s="10">
         <v>0.0</v>
@@ -7789,180 +7784,64 @@
       <c r="BG41" s="10"/>
     </row>
     <row r="42">
-      <c r="A42" s="6">
-        <v>1148.0</v>
-      </c>
-      <c r="B42" s="6">
-        <v>711.0</v>
-      </c>
-      <c r="C42" s="6">
-        <v>270.0</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="6">
-        <v>2019.0</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="I42" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="J42" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="O42" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="P42" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Q42" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="R42" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="S42" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="T42" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="U42" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="V42" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W42" s="8">
-        <v>0.74</v>
-      </c>
-      <c r="X42" s="8">
-        <v>1263.0</v>
-      </c>
-      <c r="Y42" s="8">
-        <v>59.0</v>
-      </c>
-      <c r="Z42" s="8">
-        <v>232.0</v>
-      </c>
-      <c r="AA42" s="8">
-        <v>259.0</v>
-      </c>
-      <c r="AB42" s="8">
-        <v>243.0</v>
-      </c>
-      <c r="AC42" s="8">
-        <v>104.0</v>
-      </c>
-      <c r="AD42" s="8">
-        <v>0.78</v>
-      </c>
-      <c r="AE42" s="8">
-        <v>0.89</v>
-      </c>
-      <c r="AF42" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="AG42" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="AH42" s="8">
-        <v>0.87</v>
-      </c>
-      <c r="AI42" s="8">
-        <v>0.88</v>
-      </c>
-      <c r="AJ42" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AK42" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AL42" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AM42" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AN42" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO42" s="6">
-        <v>1148.0</v>
-      </c>
-      <c r="AP42" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="AQ42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY42" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="AZ42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB42" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="BC42" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="BD42" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="BE42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF42" s="10" t="s">
-        <v>64</v>
-      </c>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="18"/>
+      <c r="AM42" s="18"/>
+      <c r="AN42" s="17"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10"/>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="10"/>
+      <c r="AT42" s="10"/>
+      <c r="AU42" s="10"/>
+      <c r="AV42" s="10"/>
+      <c r="AW42" s="10"/>
+      <c r="AX42" s="10"/>
+      <c r="AY42" s="10"/>
+      <c r="AZ42" s="10"/>
+      <c r="BA42" s="10"/>
+      <c r="BB42" s="10"/>
+      <c r="BC42" s="10"/>
+      <c r="BD42" s="10"/>
+      <c r="BE42" s="10"/>
+      <c r="BF42" s="10"/>
       <c r="BG42" s="10"/>
     </row>
     <row r="43">
@@ -7984,9 +7863,9 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="17"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
       <c r="V43" s="17"/>
       <c r="W43" s="18"/>
       <c r="X43" s="17"/>
@@ -8005,7 +7884,7 @@
       <c r="AK43" s="18"/>
       <c r="AL43" s="18"/>
       <c r="AM43" s="18"/>
-      <c r="AN43" s="17"/>
+      <c r="AN43" s="18"/>
       <c r="AO43" s="10"/>
       <c r="AP43" s="10"/>
       <c r="AQ43" s="10"/>
@@ -8232,10 +8111,10 @@
       <c r="T47" s="17"/>
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
-      <c r="W47" s="18"/>
+      <c r="W47" s="17"/>
       <c r="X47" s="17"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="10"/>
       <c r="AA47" s="18"/>
       <c r="AB47" s="18"/>
       <c r="AC47" s="18"/>
@@ -8332,65 +8211,65 @@
       <c r="BG48" s="10"/>
     </row>
     <row r="49">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="18"/>
-      <c r="AB49" s="18"/>
-      <c r="AC49" s="18"/>
-      <c r="AD49" s="17"/>
-      <c r="AE49" s="18"/>
-      <c r="AF49" s="18"/>
-      <c r="AG49" s="18"/>
-      <c r="AH49" s="18"/>
-      <c r="AI49" s="18"/>
-      <c r="AJ49" s="10"/>
-      <c r="AK49" s="18"/>
-      <c r="AL49" s="18"/>
-      <c r="AM49" s="18"/>
-      <c r="AN49" s="18"/>
-      <c r="AO49" s="10"/>
-      <c r="AP49" s="10"/>
-      <c r="AQ49" s="10"/>
-      <c r="AR49" s="10"/>
-      <c r="AS49" s="10"/>
-      <c r="AT49" s="10"/>
-      <c r="AU49" s="10"/>
-      <c r="AV49" s="10"/>
-      <c r="AW49" s="10"/>
-      <c r="AX49" s="10"/>
-      <c r="AY49" s="10"/>
-      <c r="AZ49" s="10"/>
-      <c r="BA49" s="10"/>
-      <c r="BB49" s="10"/>
-      <c r="BC49" s="10"/>
-      <c r="BD49" s="10"/>
-      <c r="BE49" s="10"/>
-      <c r="BF49" s="10"/>
-      <c r="BG49" s="10"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="9"/>
+      <c r="AL49" s="9"/>
+      <c r="AM49" s="9"/>
+      <c r="AN49" s="8"/>
+      <c r="AO49" s="6"/>
+      <c r="AP49" s="6"/>
+      <c r="AQ49" s="6"/>
+      <c r="AR49" s="6"/>
+      <c r="AS49" s="6"/>
+      <c r="AT49" s="6"/>
+      <c r="AU49" s="6"/>
+      <c r="AV49" s="6"/>
+      <c r="AW49" s="6"/>
+      <c r="AX49" s="6"/>
+      <c r="AY49" s="6"/>
+      <c r="AZ49" s="6"/>
+      <c r="BA49" s="6"/>
+      <c r="BB49" s="6"/>
+      <c r="BC49" s="6"/>
+      <c r="BD49" s="6"/>
+      <c r="BE49" s="6"/>
+      <c r="BF49" s="6"/>
+      <c r="BG49" s="6"/>
     </row>
     <row r="50">
       <c r="A50" s="6"/>
@@ -8476,10 +8355,10 @@
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
       <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
+      <c r="W51" s="9"/>
       <c r="X51" s="8"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="6"/>
       <c r="AA51" s="9"/>
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
@@ -8493,7 +8372,7 @@
       <c r="AK51" s="9"/>
       <c r="AL51" s="9"/>
       <c r="AM51" s="9"/>
-      <c r="AN51" s="8"/>
+      <c r="AN51" s="9"/>
       <c r="AO51" s="6"/>
       <c r="AP51" s="6"/>
       <c r="AQ51" s="6"/>
@@ -8554,7 +8433,7 @@
       <c r="AK52" s="9"/>
       <c r="AL52" s="9"/>
       <c r="AM52" s="9"/>
-      <c r="AN52" s="9"/>
+      <c r="AN52" s="8"/>
       <c r="AO52" s="6"/>
       <c r="AP52" s="6"/>
       <c r="AQ52" s="6"/>
@@ -8724,8 +8603,8 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
       <c r="Z55" s="6"/>
-      <c r="AA55" s="9"/>
-      <c r="AB55" s="9"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
       <c r="AC55" s="9"/>
       <c r="AD55" s="8"/>
       <c r="AE55" s="9"/>
@@ -8737,7 +8616,7 @@
       <c r="AK55" s="9"/>
       <c r="AL55" s="9"/>
       <c r="AM55" s="9"/>
-      <c r="AN55" s="8"/>
+      <c r="AN55" s="9"/>
       <c r="AO55" s="6"/>
       <c r="AP55" s="6"/>
       <c r="AQ55" s="6"/>
@@ -8777,16 +8656,16 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
       <c r="V56" s="8"/>
-      <c r="W56" s="9"/>
+      <c r="W56" s="8"/>
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
-      <c r="AB56" s="6"/>
+      <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
       <c r="AD56" s="8"/>
       <c r="AE56" s="9"/>
@@ -8838,9 +8717,9 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="6"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
       <c r="X57" s="8"/>
@@ -9021,9 +8900,9 @@
       <c r="P60" s="6"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
       <c r="V60" s="8"/>
       <c r="W60" s="8"/>
       <c r="X60" s="8"/>
@@ -9204,9 +9083,9 @@
       <c r="P63" s="6"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="6"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
       <c r="X63" s="8"/>
@@ -9387,9 +9266,9 @@
       <c r="P66" s="6"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
       <c r="V66" s="8"/>
       <c r="W66" s="8"/>
       <c r="X66" s="8"/>
@@ -9509,17 +9388,17 @@
       <c r="P68" s="6"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="6"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
       <c r="V68" s="8"/>
       <c r="W68" s="8"/>
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
-      <c r="AB68" s="9"/>
-      <c r="AC68" s="9"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="6"/>
       <c r="AD68" s="8"/>
       <c r="AE68" s="9"/>
       <c r="AF68" s="9"/>
@@ -9652,7 +9531,7 @@
       <c r="AK70" s="9"/>
       <c r="AL70" s="9"/>
       <c r="AM70" s="9"/>
-      <c r="AN70" s="9"/>
+      <c r="AN70" s="8"/>
       <c r="AO70" s="6"/>
       <c r="AP70" s="6"/>
       <c r="AQ70" s="6"/>
@@ -9713,7 +9592,7 @@
       <c r="AK71" s="9"/>
       <c r="AL71" s="9"/>
       <c r="AM71" s="9"/>
-      <c r="AN71" s="8"/>
+      <c r="AN71" s="9"/>
       <c r="AO71" s="6"/>
       <c r="AP71" s="6"/>
       <c r="AQ71" s="6"/>
@@ -9774,7 +9653,7 @@
       <c r="AK72" s="9"/>
       <c r="AL72" s="9"/>
       <c r="AM72" s="9"/>
-      <c r="AN72" s="9"/>
+      <c r="AN72" s="8"/>
       <c r="AO72" s="6"/>
       <c r="AP72" s="6"/>
       <c r="AQ72" s="6"/>
@@ -9835,7 +9714,7 @@
       <c r="AK73" s="9"/>
       <c r="AL73" s="9"/>
       <c r="AM73" s="9"/>
-      <c r="AN73" s="8"/>
+      <c r="AN73" s="9"/>
       <c r="AO73" s="6"/>
       <c r="AP73" s="6"/>
       <c r="AQ73" s="6"/>
@@ -10201,7 +10080,7 @@
       <c r="AK79" s="9"/>
       <c r="AL79" s="9"/>
       <c r="AM79" s="9"/>
-      <c r="AN79" s="9"/>
+      <c r="AN79" s="8"/>
       <c r="AO79" s="6"/>
       <c r="AP79" s="6"/>
       <c r="AQ79" s="6"/>
@@ -10262,7 +10141,7 @@
       <c r="AK80" s="9"/>
       <c r="AL80" s="9"/>
       <c r="AM80" s="9"/>
-      <c r="AN80" s="8"/>
+      <c r="AN80" s="9"/>
       <c r="AO80" s="6"/>
       <c r="AP80" s="6"/>
       <c r="AQ80" s="6"/>
@@ -10323,7 +10202,7 @@
       <c r="AK81" s="9"/>
       <c r="AL81" s="9"/>
       <c r="AM81" s="9"/>
-      <c r="AN81" s="9"/>
+      <c r="AN81" s="8"/>
       <c r="AO81" s="6"/>
       <c r="AP81" s="6"/>
       <c r="AQ81" s="6"/>
@@ -10384,7 +10263,7 @@
       <c r="AK82" s="9"/>
       <c r="AL82" s="9"/>
       <c r="AM82" s="9"/>
-      <c r="AN82" s="8"/>
+      <c r="AN82" s="9"/>
       <c r="AO82" s="6"/>
       <c r="AP82" s="6"/>
       <c r="AQ82" s="6"/>
@@ -10628,7 +10507,7 @@
       <c r="AK86" s="9"/>
       <c r="AL86" s="9"/>
       <c r="AM86" s="9"/>
-      <c r="AN86" s="9"/>
+      <c r="AN86" s="8"/>
       <c r="AO86" s="6"/>
       <c r="AP86" s="6"/>
       <c r="AQ86" s="6"/>
@@ -10859,9 +10738,9 @@
       <c r="X90" s="8"/>
       <c r="Y90" s="8"/>
       <c r="Z90" s="6"/>
-      <c r="AA90" s="6"/>
-      <c r="AB90" s="6"/>
-      <c r="AC90" s="6"/>
+      <c r="AA90" s="9"/>
+      <c r="AB90" s="9"/>
+      <c r="AC90" s="9"/>
       <c r="AD90" s="8"/>
       <c r="AE90" s="9"/>
       <c r="AF90" s="9"/>
@@ -10872,7 +10751,7 @@
       <c r="AK90" s="9"/>
       <c r="AL90" s="9"/>
       <c r="AM90" s="9"/>
-      <c r="AN90" s="8"/>
+      <c r="AN90" s="9"/>
       <c r="AO90" s="6"/>
       <c r="AP90" s="6"/>
       <c r="AQ90" s="6"/>
@@ -10994,7 +10873,7 @@
       <c r="AK92" s="9"/>
       <c r="AL92" s="9"/>
       <c r="AM92" s="9"/>
-      <c r="AN92" s="9"/>
+      <c r="AN92" s="8"/>
       <c r="AO92" s="6"/>
       <c r="AP92" s="6"/>
       <c r="AQ92" s="6"/>
@@ -11055,7 +10934,7 @@
       <c r="AK93" s="9"/>
       <c r="AL93" s="9"/>
       <c r="AM93" s="9"/>
-      <c r="AN93" s="8"/>
+      <c r="AN93" s="9"/>
       <c r="AO93" s="6"/>
       <c r="AP93" s="6"/>
       <c r="AQ93" s="6"/>
@@ -11238,7 +11117,7 @@
       <c r="AK96" s="9"/>
       <c r="AL96" s="9"/>
       <c r="AM96" s="9"/>
-      <c r="AN96" s="9"/>
+      <c r="AN96" s="8"/>
       <c r="AO96" s="6"/>
       <c r="AP96" s="6"/>
       <c r="AQ96" s="6"/>
@@ -11299,7 +11178,7 @@
       <c r="AK97" s="9"/>
       <c r="AL97" s="9"/>
       <c r="AM97" s="9"/>
-      <c r="AN97" s="8"/>
+      <c r="AN97" s="9"/>
       <c r="AO97" s="6"/>
       <c r="AP97" s="6"/>
       <c r="AQ97" s="6"/>
@@ -11404,7 +11283,7 @@
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
       <c r="V99" s="8"/>
-      <c r="W99" s="8"/>
+      <c r="W99" s="9"/>
       <c r="X99" s="8"/>
       <c r="Y99" s="8"/>
       <c r="Z99" s="6"/>
@@ -11421,7 +11300,7 @@
       <c r="AK99" s="9"/>
       <c r="AL99" s="9"/>
       <c r="AM99" s="9"/>
-      <c r="AN99" s="9"/>
+      <c r="AN99" s="8"/>
       <c r="AO99" s="6"/>
       <c r="AP99" s="6"/>
       <c r="AQ99" s="6"/>
@@ -14694,9 +14573,9 @@
       <c r="P153" s="6"/>
       <c r="Q153" s="8"/>
       <c r="R153" s="6"/>
-      <c r="S153" s="6"/>
-      <c r="T153" s="8"/>
-      <c r="U153" s="8"/>
+      <c r="S153" s="9"/>
+      <c r="T153" s="9"/>
+      <c r="U153" s="9"/>
       <c r="V153" s="8"/>
       <c r="W153" s="9"/>
       <c r="X153" s="8"/>
@@ -14763,8 +14642,8 @@
       <c r="X154" s="8"/>
       <c r="Y154" s="8"/>
       <c r="Z154" s="6"/>
-      <c r="AA154" s="9"/>
-      <c r="AB154" s="9"/>
+      <c r="AA154" s="6"/>
+      <c r="AB154" s="6"/>
       <c r="AC154" s="9"/>
       <c r="AD154" s="8"/>
       <c r="AE154" s="9"/>
@@ -14826,7 +14705,7 @@
       <c r="Z155" s="6"/>
       <c r="AA155" s="6"/>
       <c r="AB155" s="6"/>
-      <c r="AC155" s="9"/>
+      <c r="AC155" s="6"/>
       <c r="AD155" s="8"/>
       <c r="AE155" s="9"/>
       <c r="AF155" s="9"/>
@@ -14885,9 +14764,9 @@
       <c r="X156" s="8"/>
       <c r="Y156" s="8"/>
       <c r="Z156" s="6"/>
-      <c r="AA156" s="6"/>
-      <c r="AB156" s="6"/>
-      <c r="AC156" s="6"/>
+      <c r="AA156" s="9"/>
+      <c r="AB156" s="9"/>
+      <c r="AC156" s="9"/>
       <c r="AD156" s="8"/>
       <c r="AE156" s="9"/>
       <c r="AF156" s="9"/>
@@ -15007,8 +14886,8 @@
       <c r="X158" s="8"/>
       <c r="Y158" s="8"/>
       <c r="Z158" s="6"/>
-      <c r="AA158" s="9"/>
-      <c r="AB158" s="9"/>
+      <c r="AA158" s="6"/>
+      <c r="AB158" s="6"/>
       <c r="AC158" s="9"/>
       <c r="AD158" s="8"/>
       <c r="AE158" s="9"/>
@@ -15069,7 +14948,7 @@
       <c r="Y159" s="8"/>
       <c r="Z159" s="6"/>
       <c r="AA159" s="6"/>
-      <c r="AB159" s="6"/>
+      <c r="AB159" s="9"/>
       <c r="AC159" s="9"/>
       <c r="AD159" s="8"/>
       <c r="AE159" s="9"/>
@@ -15191,7 +15070,7 @@
       <c r="Y161" s="8"/>
       <c r="Z161" s="6"/>
       <c r="AA161" s="6"/>
-      <c r="AB161" s="9"/>
+      <c r="AB161" s="6"/>
       <c r="AC161" s="9"/>
       <c r="AD161" s="8"/>
       <c r="AE161" s="9"/>
@@ -15251,8 +15130,8 @@
       <c r="X162" s="8"/>
       <c r="Y162" s="8"/>
       <c r="Z162" s="6"/>
-      <c r="AA162" s="6"/>
-      <c r="AB162" s="6"/>
+      <c r="AA162" s="9"/>
+      <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
       <c r="AD162" s="8"/>
       <c r="AE162" s="9"/>
@@ -15373,8 +15252,8 @@
       <c r="X164" s="8"/>
       <c r="Y164" s="8"/>
       <c r="Z164" s="6"/>
-      <c r="AA164" s="9"/>
-      <c r="AB164" s="9"/>
+      <c r="AA164" s="6"/>
+      <c r="AB164" s="6"/>
       <c r="AC164" s="9"/>
       <c r="AD164" s="8"/>
       <c r="AE164" s="9"/>
@@ -15436,7 +15315,7 @@
       <c r="Z165" s="6"/>
       <c r="AA165" s="6"/>
       <c r="AB165" s="6"/>
-      <c r="AC165" s="9"/>
+      <c r="AC165" s="6"/>
       <c r="AD165" s="8"/>
       <c r="AE165" s="9"/>
       <c r="AF165" s="9"/>
@@ -15495,9 +15374,9 @@
       <c r="X166" s="8"/>
       <c r="Y166" s="8"/>
       <c r="Z166" s="6"/>
-      <c r="AA166" s="6"/>
-      <c r="AB166" s="6"/>
-      <c r="AC166" s="6"/>
+      <c r="AA166" s="9"/>
+      <c r="AB166" s="9"/>
+      <c r="AC166" s="9"/>
       <c r="AD166" s="8"/>
       <c r="AE166" s="9"/>
       <c r="AF166" s="9"/>
@@ -15617,8 +15496,8 @@
       <c r="X168" s="8"/>
       <c r="Y168" s="8"/>
       <c r="Z168" s="6"/>
-      <c r="AA168" s="9"/>
-      <c r="AB168" s="9"/>
+      <c r="AA168" s="6"/>
+      <c r="AB168" s="6"/>
       <c r="AC168" s="9"/>
       <c r="AD168" s="8"/>
       <c r="AE168" s="9"/>
@@ -15679,7 +15558,7 @@
       <c r="Y169" s="8"/>
       <c r="Z169" s="6"/>
       <c r="AA169" s="6"/>
-      <c r="AB169" s="6"/>
+      <c r="AB169" s="9"/>
       <c r="AC169" s="9"/>
       <c r="AD169" s="8"/>
       <c r="AE169" s="9"/>
@@ -15801,7 +15680,7 @@
       <c r="Y171" s="8"/>
       <c r="Z171" s="6"/>
       <c r="AA171" s="6"/>
-      <c r="AB171" s="9"/>
+      <c r="AB171" s="6"/>
       <c r="AC171" s="9"/>
       <c r="AD171" s="8"/>
       <c r="AE171" s="9"/>
@@ -15861,8 +15740,8 @@
       <c r="X172" s="8"/>
       <c r="Y172" s="8"/>
       <c r="Z172" s="6"/>
-      <c r="AA172" s="6"/>
-      <c r="AB172" s="6"/>
+      <c r="AA172" s="9"/>
+      <c r="AB172" s="9"/>
       <c r="AC172" s="9"/>
       <c r="AD172" s="8"/>
       <c r="AE172" s="9"/>
@@ -15983,8 +15862,8 @@
       <c r="X174" s="8"/>
       <c r="Y174" s="8"/>
       <c r="Z174" s="6"/>
-      <c r="AA174" s="9"/>
-      <c r="AB174" s="9"/>
+      <c r="AA174" s="6"/>
+      <c r="AB174" s="6"/>
       <c r="AC174" s="9"/>
       <c r="AD174" s="8"/>
       <c r="AE174" s="9"/>
@@ -16046,7 +15925,7 @@
       <c r="Z175" s="6"/>
       <c r="AA175" s="6"/>
       <c r="AB175" s="6"/>
-      <c r="AC175" s="9"/>
+      <c r="AC175" s="6"/>
       <c r="AD175" s="8"/>
       <c r="AE175" s="9"/>
       <c r="AF175" s="9"/>
@@ -16105,9 +15984,9 @@
       <c r="X176" s="8"/>
       <c r="Y176" s="8"/>
       <c r="Z176" s="6"/>
-      <c r="AA176" s="6"/>
-      <c r="AB176" s="6"/>
-      <c r="AC176" s="6"/>
+      <c r="AA176" s="9"/>
+      <c r="AB176" s="9"/>
+      <c r="AC176" s="9"/>
       <c r="AD176" s="8"/>
       <c r="AE176" s="9"/>
       <c r="AF176" s="9"/>
@@ -16227,8 +16106,8 @@
       <c r="X178" s="8"/>
       <c r="Y178" s="8"/>
       <c r="Z178" s="6"/>
-      <c r="AA178" s="9"/>
-      <c r="AB178" s="9"/>
+      <c r="AA178" s="6"/>
+      <c r="AB178" s="6"/>
       <c r="AC178" s="9"/>
       <c r="AD178" s="8"/>
       <c r="AE178" s="9"/>
@@ -16289,7 +16168,7 @@
       <c r="Y179" s="8"/>
       <c r="Z179" s="6"/>
       <c r="AA179" s="6"/>
-      <c r="AB179" s="6"/>
+      <c r="AB179" s="9"/>
       <c r="AC179" s="9"/>
       <c r="AD179" s="8"/>
       <c r="AE179" s="9"/>
@@ -16411,7 +16290,7 @@
       <c r="Y181" s="8"/>
       <c r="Z181" s="6"/>
       <c r="AA181" s="6"/>
-      <c r="AB181" s="9"/>
+      <c r="AB181" s="6"/>
       <c r="AC181" s="9"/>
       <c r="AD181" s="8"/>
       <c r="AE181" s="9"/>
@@ -16471,8 +16350,8 @@
       <c r="X182" s="8"/>
       <c r="Y182" s="8"/>
       <c r="Z182" s="6"/>
-      <c r="AA182" s="6"/>
-      <c r="AB182" s="6"/>
+      <c r="AA182" s="9"/>
+      <c r="AB182" s="9"/>
       <c r="AC182" s="9"/>
       <c r="AD182" s="8"/>
       <c r="AE182" s="9"/>
@@ -16524,14 +16403,14 @@
       <c r="P183" s="6"/>
       <c r="Q183" s="8"/>
       <c r="R183" s="6"/>
-      <c r="S183" s="9"/>
-      <c r="T183" s="9"/>
-      <c r="U183" s="9"/>
+      <c r="S183" s="6"/>
+      <c r="T183" s="8"/>
+      <c r="U183" s="8"/>
       <c r="V183" s="8"/>
-      <c r="W183" s="9"/>
+      <c r="W183" s="8"/>
       <c r="X183" s="8"/>
-      <c r="Y183" s="8"/>
-      <c r="Z183" s="6"/>
+      <c r="Y183" s="9"/>
+      <c r="Z183" s="9"/>
       <c r="AA183" s="9"/>
       <c r="AB183" s="9"/>
       <c r="AC183" s="9"/>
@@ -16768,14 +16647,14 @@
       <c r="P187" s="6"/>
       <c r="Q187" s="8"/>
       <c r="R187" s="6"/>
-      <c r="S187" s="6"/>
-      <c r="T187" s="8"/>
-      <c r="U187" s="8"/>
+      <c r="S187" s="9"/>
+      <c r="T187" s="9"/>
+      <c r="U187" s="9"/>
       <c r="V187" s="8"/>
-      <c r="W187" s="8"/>
+      <c r="W187" s="9"/>
       <c r="X187" s="8"/>
-      <c r="Y187" s="9"/>
-      <c r="Z187" s="9"/>
+      <c r="Y187" s="8"/>
+      <c r="Z187" s="6"/>
       <c r="AA187" s="9"/>
       <c r="AB187" s="9"/>
       <c r="AC187" s="9"/>
@@ -16890,14 +16769,14 @@
       <c r="P189" s="6"/>
       <c r="Q189" s="8"/>
       <c r="R189" s="6"/>
-      <c r="S189" s="9"/>
-      <c r="T189" s="9"/>
-      <c r="U189" s="9"/>
+      <c r="S189" s="6"/>
+      <c r="T189" s="8"/>
+      <c r="U189" s="8"/>
       <c r="V189" s="8"/>
-      <c r="W189" s="9"/>
+      <c r="W189" s="8"/>
       <c r="X189" s="8"/>
-      <c r="Y189" s="8"/>
-      <c r="Z189" s="6"/>
+      <c r="Y189" s="9"/>
+      <c r="Z189" s="9"/>
       <c r="AA189" s="9"/>
       <c r="AB189" s="9"/>
       <c r="AC189" s="9"/>
@@ -17155,7 +17034,7 @@
       <c r="AK193" s="9"/>
       <c r="AL193" s="9"/>
       <c r="AM193" s="9"/>
-      <c r="AN193" s="8"/>
+      <c r="AN193" s="9"/>
       <c r="AO193" s="6"/>
       <c r="AP193" s="6"/>
       <c r="AQ193" s="6"/>
@@ -18619,7 +18498,7 @@
       <c r="AK217" s="9"/>
       <c r="AL217" s="9"/>
       <c r="AM217" s="9"/>
-      <c r="AN217" s="9"/>
+      <c r="AN217" s="8"/>
       <c r="AO217" s="6"/>
       <c r="AP217" s="6"/>
       <c r="AQ217" s="6"/>
@@ -18846,7 +18725,7 @@
       <c r="T221" s="8"/>
       <c r="U221" s="8"/>
       <c r="V221" s="8"/>
-      <c r="W221" s="8"/>
+      <c r="W221" s="9"/>
       <c r="X221" s="8"/>
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
@@ -18863,7 +18742,7 @@
       <c r="AK221" s="9"/>
       <c r="AL221" s="9"/>
       <c r="AM221" s="9"/>
-      <c r="AN221" s="8"/>
+      <c r="AN221" s="9"/>
       <c r="AO221" s="6"/>
       <c r="AP221" s="6"/>
       <c r="AQ221" s="6"/>
@@ -18985,7 +18864,7 @@
       <c r="AK223" s="9"/>
       <c r="AL223" s="9"/>
       <c r="AM223" s="9"/>
-      <c r="AN223" s="9"/>
+      <c r="AN223" s="8"/>
       <c r="AO223" s="6"/>
       <c r="AP223" s="6"/>
       <c r="AQ223" s="6"/>
@@ -19098,8 +18977,8 @@
       <c r="AB225" s="9"/>
       <c r="AC225" s="9"/>
       <c r="AD225" s="8"/>
-      <c r="AE225" s="9"/>
-      <c r="AF225" s="9"/>
+      <c r="AE225" s="8"/>
+      <c r="AF225" s="6"/>
       <c r="AG225" s="9"/>
       <c r="AH225" s="9"/>
       <c r="AI225" s="9"/>
@@ -19107,7 +18986,7 @@
       <c r="AK225" s="9"/>
       <c r="AL225" s="9"/>
       <c r="AM225" s="9"/>
-      <c r="AN225" s="8"/>
+      <c r="AN225" s="9"/>
       <c r="AO225" s="6"/>
       <c r="AP225" s="6"/>
       <c r="AQ225" s="6"/>
@@ -19456,7 +19335,7 @@
       <c r="T231" s="8"/>
       <c r="U231" s="8"/>
       <c r="V231" s="8"/>
-      <c r="W231" s="9"/>
+      <c r="W231" s="8"/>
       <c r="X231" s="8"/>
       <c r="Y231" s="9"/>
       <c r="Z231" s="9"/>
@@ -19464,8 +19343,8 @@
       <c r="AB231" s="9"/>
       <c r="AC231" s="9"/>
       <c r="AD231" s="8"/>
-      <c r="AE231" s="8"/>
-      <c r="AF231" s="6"/>
+      <c r="AE231" s="9"/>
+      <c r="AF231" s="9"/>
       <c r="AG231" s="9"/>
       <c r="AH231" s="9"/>
       <c r="AI231" s="9"/>
@@ -19473,7 +19352,7 @@
       <c r="AK231" s="9"/>
       <c r="AL231" s="9"/>
       <c r="AM231" s="9"/>
-      <c r="AN231" s="9"/>
+      <c r="AN231" s="8"/>
       <c r="AO231" s="6"/>
       <c r="AP231" s="6"/>
       <c r="AQ231" s="6"/>
@@ -19519,11 +19398,11 @@
       <c r="V232" s="8"/>
       <c r="W232" s="8"/>
       <c r="X232" s="8"/>
-      <c r="Y232" s="9"/>
-      <c r="Z232" s="9"/>
-      <c r="AA232" s="9"/>
-      <c r="AB232" s="9"/>
-      <c r="AC232" s="9"/>
+      <c r="Y232" s="8"/>
+      <c r="Z232" s="6"/>
+      <c r="AA232" s="6"/>
+      <c r="AB232" s="6"/>
+      <c r="AC232" s="6"/>
       <c r="AD232" s="8"/>
       <c r="AE232" s="9"/>
       <c r="AF232" s="9"/>
@@ -19580,11 +19459,11 @@
       <c r="V233" s="8"/>
       <c r="W233" s="8"/>
       <c r="X233" s="8"/>
-      <c r="Y233" s="8"/>
-      <c r="Z233" s="6"/>
-      <c r="AA233" s="6"/>
-      <c r="AB233" s="6"/>
-      <c r="AC233" s="6"/>
+      <c r="Y233" s="9"/>
+      <c r="Z233" s="9"/>
+      <c r="AA233" s="9"/>
+      <c r="AB233" s="9"/>
+      <c r="AC233" s="9"/>
       <c r="AD233" s="8"/>
       <c r="AE233" s="9"/>
       <c r="AF233" s="9"/>
@@ -19595,7 +19474,7 @@
       <c r="AK233" s="9"/>
       <c r="AL233" s="9"/>
       <c r="AM233" s="9"/>
-      <c r="AN233" s="8"/>
+      <c r="AN233" s="9"/>
       <c r="AO233" s="6"/>
       <c r="AP233" s="6"/>
       <c r="AQ233" s="6"/>
@@ -19702,9 +19581,9 @@
       <c r="V235" s="8"/>
       <c r="W235" s="8"/>
       <c r="X235" s="8"/>
-      <c r="Y235" s="9"/>
-      <c r="Z235" s="9"/>
-      <c r="AA235" s="9"/>
+      <c r="Y235" s="8"/>
+      <c r="Z235" s="6"/>
+      <c r="AA235" s="6"/>
       <c r="AB235" s="9"/>
       <c r="AC235" s="9"/>
       <c r="AD235" s="8"/>
@@ -19822,11 +19701,11 @@
       <c r="T237" s="8"/>
       <c r="U237" s="8"/>
       <c r="V237" s="8"/>
-      <c r="W237" s="8"/>
+      <c r="W237" s="9"/>
       <c r="X237" s="8"/>
       <c r="Y237" s="8"/>
       <c r="Z237" s="6"/>
-      <c r="AA237" s="6"/>
+      <c r="AA237" s="9"/>
       <c r="AB237" s="9"/>
       <c r="AC237" s="9"/>
       <c r="AD237" s="8"/>
@@ -20327,7 +20206,7 @@
       <c r="AK245" s="9"/>
       <c r="AL245" s="9"/>
       <c r="AM245" s="9"/>
-      <c r="AN245" s="9"/>
+      <c r="AN245" s="8"/>
       <c r="AO245" s="6"/>
       <c r="AP245" s="6"/>
       <c r="AQ245" s="6"/>
@@ -20432,10 +20311,10 @@
       <c r="T247" s="8"/>
       <c r="U247" s="8"/>
       <c r="V247" s="8"/>
-      <c r="W247" s="9"/>
+      <c r="W247" s="8"/>
       <c r="X247" s="8"/>
-      <c r="Y247" s="8"/>
-      <c r="Z247" s="6"/>
+      <c r="Y247" s="9"/>
+      <c r="Z247" s="9"/>
       <c r="AA247" s="9"/>
       <c r="AB247" s="9"/>
       <c r="AC247" s="9"/>
@@ -20510,7 +20389,7 @@
       <c r="AK248" s="9"/>
       <c r="AL248" s="9"/>
       <c r="AM248" s="9"/>
-      <c r="AN248" s="8"/>
+      <c r="AN248" s="9"/>
       <c r="AO248" s="6"/>
       <c r="AP248" s="6"/>
       <c r="AQ248" s="6"/>
@@ -20920,11 +20799,11 @@
       <c r="T255" s="8"/>
       <c r="U255" s="8"/>
       <c r="V255" s="8"/>
-      <c r="W255" s="8"/>
+      <c r="W255" s="9"/>
       <c r="X255" s="8"/>
-      <c r="Y255" s="9"/>
-      <c r="Z255" s="9"/>
-      <c r="AA255" s="9"/>
+      <c r="Y255" s="8"/>
+      <c r="Z255" s="6"/>
+      <c r="AA255" s="6"/>
       <c r="AB255" s="9"/>
       <c r="AC255" s="9"/>
       <c r="AD255" s="8"/>
@@ -20937,7 +20816,7 @@
       <c r="AK255" s="9"/>
       <c r="AL255" s="9"/>
       <c r="AM255" s="9"/>
-      <c r="AN255" s="9"/>
+      <c r="AN255" s="8"/>
       <c r="AO255" s="6"/>
       <c r="AP255" s="6"/>
       <c r="AQ255" s="6"/>
@@ -20985,11 +20864,11 @@
       <c r="X256" s="8"/>
       <c r="Y256" s="8"/>
       <c r="Z256" s="6"/>
-      <c r="AA256" s="6"/>
+      <c r="AA256" s="9"/>
       <c r="AB256" s="9"/>
       <c r="AC256" s="9"/>
       <c r="AD256" s="8"/>
-      <c r="AE256" s="9"/>
+      <c r="AE256" s="8"/>
       <c r="AF256" s="9"/>
       <c r="AG256" s="9"/>
       <c r="AH256" s="9"/>
@@ -20998,7 +20877,7 @@
       <c r="AK256" s="9"/>
       <c r="AL256" s="9"/>
       <c r="AM256" s="9"/>
-      <c r="AN256" s="8"/>
+      <c r="AN256" s="9"/>
       <c r="AO256" s="6"/>
       <c r="AP256" s="6"/>
       <c r="AQ256" s="6"/>
@@ -21050,7 +20929,7 @@
       <c r="AB257" s="9"/>
       <c r="AC257" s="9"/>
       <c r="AD257" s="8"/>
-      <c r="AE257" s="8"/>
+      <c r="AE257" s="9"/>
       <c r="AF257" s="9"/>
       <c r="AG257" s="9"/>
       <c r="AH257" s="9"/>
@@ -21103,10 +20982,10 @@
       <c r="T258" s="8"/>
       <c r="U258" s="8"/>
       <c r="V258" s="8"/>
-      <c r="W258" s="9"/>
+      <c r="W258" s="8"/>
       <c r="X258" s="8"/>
-      <c r="Y258" s="8"/>
-      <c r="Z258" s="6"/>
+      <c r="Y258" s="9"/>
+      <c r="Z258" s="9"/>
       <c r="AA258" s="9"/>
       <c r="AB258" s="9"/>
       <c r="AC258" s="9"/>
@@ -21227,8 +21106,8 @@
       <c r="V260" s="8"/>
       <c r="W260" s="8"/>
       <c r="X260" s="8"/>
-      <c r="Y260" s="9"/>
-      <c r="Z260" s="9"/>
+      <c r="Y260" s="8"/>
+      <c r="Z260" s="6"/>
       <c r="AA260" s="9"/>
       <c r="AB260" s="9"/>
       <c r="AC260" s="9"/>
@@ -21242,7 +21121,7 @@
       <c r="AK260" s="9"/>
       <c r="AL260" s="9"/>
       <c r="AM260" s="9"/>
-      <c r="AN260" s="9"/>
+      <c r="AN260" s="8"/>
       <c r="AO260" s="6"/>
       <c r="AP260" s="6"/>
       <c r="AQ260" s="6"/>
@@ -21770,9 +21649,9 @@
       <c r="P269" s="6"/>
       <c r="Q269" s="8"/>
       <c r="R269" s="6"/>
-      <c r="S269" s="6"/>
-      <c r="T269" s="8"/>
-      <c r="U269" s="8"/>
+      <c r="S269" s="9"/>
+      <c r="T269" s="9"/>
+      <c r="U269" s="9"/>
       <c r="V269" s="8"/>
       <c r="W269" s="8"/>
       <c r="X269" s="8"/>
@@ -21892,14 +21771,14 @@
       <c r="P271" s="6"/>
       <c r="Q271" s="8"/>
       <c r="R271" s="6"/>
-      <c r="S271" s="9"/>
-      <c r="T271" s="9"/>
-      <c r="U271" s="9"/>
+      <c r="S271" s="6"/>
+      <c r="T271" s="8"/>
+      <c r="U271" s="8"/>
       <c r="V271" s="8"/>
-      <c r="W271" s="8"/>
+      <c r="W271" s="9"/>
       <c r="X271" s="8"/>
-      <c r="Y271" s="8"/>
-      <c r="Z271" s="6"/>
+      <c r="Y271" s="9"/>
+      <c r="Z271" s="9"/>
       <c r="AA271" s="9"/>
       <c r="AB271" s="9"/>
       <c r="AC271" s="9"/>
@@ -21942,7 +21821,7 @@
       <c r="E272" s="8"/>
       <c r="F272" s="6"/>
       <c r="G272" s="8"/>
-      <c r="H272" s="8"/>
+      <c r="H272" s="19"/>
       <c r="I272" s="6"/>
       <c r="J272" s="6"/>
       <c r="K272" s="6"/>
@@ -22003,7 +21882,7 @@
       <c r="E273" s="8"/>
       <c r="F273" s="6"/>
       <c r="G273" s="8"/>
-      <c r="H273" s="19"/>
+      <c r="H273" s="8"/>
       <c r="I273" s="6"/>
       <c r="J273" s="6"/>
       <c r="K273" s="6"/>
@@ -22079,7 +21958,7 @@
       <c r="T274" s="8"/>
       <c r="U274" s="8"/>
       <c r="V274" s="8"/>
-      <c r="W274" s="9"/>
+      <c r="W274" s="8"/>
       <c r="X274" s="8"/>
       <c r="Y274" s="9"/>
       <c r="Z274" s="9"/>
@@ -22096,7 +21975,7 @@
       <c r="AK274" s="9"/>
       <c r="AL274" s="9"/>
       <c r="AM274" s="9"/>
-      <c r="AN274" s="8"/>
+      <c r="AN274" s="9"/>
       <c r="AO274" s="6"/>
       <c r="AP274" s="6"/>
       <c r="AQ274" s="6"/>
@@ -22218,7 +22097,7 @@
       <c r="AK276" s="9"/>
       <c r="AL276" s="9"/>
       <c r="AM276" s="9"/>
-      <c r="AN276" s="9"/>
+      <c r="AN276" s="8"/>
       <c r="AO276" s="6"/>
       <c r="AP276" s="6"/>
       <c r="AQ276" s="6"/>
@@ -22384,7 +22263,7 @@
       <c r="T279" s="8"/>
       <c r="U279" s="8"/>
       <c r="V279" s="8"/>
-      <c r="W279" s="8"/>
+      <c r="W279" s="9"/>
       <c r="X279" s="8"/>
       <c r="Y279" s="9"/>
       <c r="Z279" s="9"/>
@@ -22401,7 +22280,7 @@
       <c r="AK279" s="9"/>
       <c r="AL279" s="9"/>
       <c r="AM279" s="9"/>
-      <c r="AN279" s="8"/>
+      <c r="AN279" s="9"/>
       <c r="AO279" s="6"/>
       <c r="AP279" s="6"/>
       <c r="AQ279" s="6"/>
@@ -22523,7 +22402,7 @@
       <c r="AK281" s="9"/>
       <c r="AL281" s="9"/>
       <c r="AM281" s="9"/>
-      <c r="AN281" s="9"/>
+      <c r="AN281" s="8"/>
       <c r="AO281" s="6"/>
       <c r="AP281" s="6"/>
       <c r="AQ281" s="6"/>
@@ -22567,7 +22446,7 @@
       <c r="T282" s="8"/>
       <c r="U282" s="8"/>
       <c r="V282" s="8"/>
-      <c r="W282" s="9"/>
+      <c r="W282" s="8"/>
       <c r="X282" s="8"/>
       <c r="Y282" s="9"/>
       <c r="Z282" s="9"/>
@@ -22584,7 +22463,7 @@
       <c r="AK282" s="9"/>
       <c r="AL282" s="9"/>
       <c r="AM282" s="9"/>
-      <c r="AN282" s="8"/>
+      <c r="AN282" s="9"/>
       <c r="AO282" s="6"/>
       <c r="AP282" s="6"/>
       <c r="AQ282" s="6"/>
@@ -22624,11 +22503,11 @@
       <c r="P283" s="6"/>
       <c r="Q283" s="8"/>
       <c r="R283" s="6"/>
-      <c r="S283" s="6"/>
-      <c r="T283" s="8"/>
-      <c r="U283" s="8"/>
+      <c r="S283" s="9"/>
+      <c r="T283" s="9"/>
+      <c r="U283" s="9"/>
       <c r="V283" s="8"/>
-      <c r="W283" s="8"/>
+      <c r="W283" s="9"/>
       <c r="X283" s="8"/>
       <c r="Y283" s="9"/>
       <c r="Z283" s="9"/>
@@ -22767,7 +22646,7 @@
       <c r="AK285" s="9"/>
       <c r="AL285" s="9"/>
       <c r="AM285" s="9"/>
-      <c r="AN285" s="9"/>
+      <c r="AN285" s="8"/>
       <c r="AO285" s="6"/>
       <c r="AP285" s="6"/>
       <c r="AQ285" s="6"/>
@@ -22868,9 +22747,9 @@
       <c r="P287" s="6"/>
       <c r="Q287" s="8"/>
       <c r="R287" s="6"/>
-      <c r="S287" s="9"/>
-      <c r="T287" s="9"/>
-      <c r="U287" s="9"/>
+      <c r="S287" s="6"/>
+      <c r="T287" s="8"/>
+      <c r="U287" s="8"/>
       <c r="V287" s="8"/>
       <c r="W287" s="9"/>
       <c r="X287" s="8"/>
@@ -22889,7 +22768,7 @@
       <c r="AK287" s="9"/>
       <c r="AL287" s="9"/>
       <c r="AM287" s="9"/>
-      <c r="AN287" s="8"/>
+      <c r="AN287" s="9"/>
       <c r="AO287" s="6"/>
       <c r="AP287" s="6"/>
       <c r="AQ287" s="6"/>
@@ -22933,7 +22812,7 @@
       <c r="T288" s="8"/>
       <c r="U288" s="8"/>
       <c r="V288" s="8"/>
-      <c r="W288" s="9"/>
+      <c r="W288" s="8"/>
       <c r="X288" s="8"/>
       <c r="Y288" s="9"/>
       <c r="Z288" s="9"/>
@@ -23057,8 +22936,8 @@
       <c r="V290" s="8"/>
       <c r="W290" s="8"/>
       <c r="X290" s="8"/>
-      <c r="Y290" s="9"/>
-      <c r="Z290" s="9"/>
+      <c r="Y290" s="8"/>
+      <c r="Z290" s="6"/>
       <c r="AA290" s="9"/>
       <c r="AB290" s="9"/>
       <c r="AC290" s="9"/>
@@ -23072,7 +22951,7 @@
       <c r="AK290" s="9"/>
       <c r="AL290" s="9"/>
       <c r="AM290" s="9"/>
-      <c r="AN290" s="9"/>
+      <c r="AN290" s="8"/>
       <c r="AO290" s="6"/>
       <c r="AP290" s="6"/>
       <c r="AQ290" s="6"/>
@@ -23240,8 +23119,8 @@
       <c r="V293" s="8"/>
       <c r="W293" s="8"/>
       <c r="X293" s="8"/>
-      <c r="Y293" s="8"/>
-      <c r="Z293" s="6"/>
+      <c r="Y293" s="9"/>
+      <c r="Z293" s="9"/>
       <c r="AA293" s="9"/>
       <c r="AB293" s="9"/>
       <c r="AC293" s="9"/>
@@ -23661,9 +23540,9 @@
       <c r="P300" s="6"/>
       <c r="Q300" s="8"/>
       <c r="R300" s="6"/>
-      <c r="S300" s="6"/>
-      <c r="T300" s="8"/>
-      <c r="U300" s="8"/>
+      <c r="S300" s="9"/>
+      <c r="T300" s="9"/>
+      <c r="U300" s="9"/>
       <c r="V300" s="8"/>
       <c r="W300" s="8"/>
       <c r="X300" s="8"/>
@@ -23783,9 +23662,9 @@
       <c r="P302" s="6"/>
       <c r="Q302" s="8"/>
       <c r="R302" s="6"/>
-      <c r="S302" s="9"/>
-      <c r="T302" s="9"/>
-      <c r="U302" s="9"/>
+      <c r="S302" s="6"/>
+      <c r="T302" s="8"/>
+      <c r="U302" s="8"/>
       <c r="V302" s="8"/>
       <c r="W302" s="8"/>
       <c r="X302" s="8"/>
@@ -24155,9 +24034,9 @@
       <c r="V308" s="8"/>
       <c r="W308" s="8"/>
       <c r="X308" s="8"/>
-      <c r="Y308" s="9"/>
-      <c r="Z308" s="9"/>
-      <c r="AA308" s="9"/>
+      <c r="Y308" s="8"/>
+      <c r="Z308" s="6"/>
+      <c r="AA308" s="6"/>
       <c r="AB308" s="9"/>
       <c r="AC308" s="9"/>
       <c r="AD308" s="8"/>
@@ -24170,7 +24049,7 @@
       <c r="AK308" s="9"/>
       <c r="AL308" s="9"/>
       <c r="AM308" s="9"/>
-      <c r="AN308" s="8"/>
+      <c r="AN308" s="9"/>
       <c r="AO308" s="6"/>
       <c r="AP308" s="6"/>
       <c r="AQ308" s="6"/>
@@ -24401,7 +24280,7 @@
       <c r="X312" s="8"/>
       <c r="Y312" s="8"/>
       <c r="Z312" s="6"/>
-      <c r="AA312" s="6"/>
+      <c r="AA312" s="9"/>
       <c r="AB312" s="9"/>
       <c r="AC312" s="9"/>
       <c r="AD312" s="8"/>
@@ -24458,7 +24337,7 @@
       <c r="T313" s="8"/>
       <c r="U313" s="8"/>
       <c r="V313" s="8"/>
-      <c r="W313" s="8"/>
+      <c r="W313" s="9"/>
       <c r="X313" s="8"/>
       <c r="Y313" s="8"/>
       <c r="Z313" s="6"/>
@@ -24759,9 +24638,9 @@
       <c r="P318" s="6"/>
       <c r="Q318" s="8"/>
       <c r="R318" s="6"/>
-      <c r="S318" s="6"/>
-      <c r="T318" s="8"/>
-      <c r="U318" s="8"/>
+      <c r="S318" s="9"/>
+      <c r="T318" s="9"/>
+      <c r="U318" s="9"/>
       <c r="V318" s="8"/>
       <c r="W318" s="9"/>
       <c r="X318" s="8"/>
@@ -24963,7 +24842,7 @@
       <c r="AK321" s="9"/>
       <c r="AL321" s="9"/>
       <c r="AM321" s="9"/>
-      <c r="AN321" s="9"/>
+      <c r="AN321" s="8"/>
       <c r="AO321" s="6"/>
       <c r="AP321" s="6"/>
       <c r="AQ321" s="6"/>
@@ -25003,11 +24882,11 @@
       <c r="P322" s="6"/>
       <c r="Q322" s="8"/>
       <c r="R322" s="6"/>
-      <c r="S322" s="9"/>
-      <c r="T322" s="9"/>
-      <c r="U322" s="9"/>
+      <c r="S322" s="6"/>
+      <c r="T322" s="8"/>
+      <c r="U322" s="8"/>
       <c r="V322" s="8"/>
-      <c r="W322" s="9"/>
+      <c r="W322" s="8"/>
       <c r="X322" s="8"/>
       <c r="Y322" s="8"/>
       <c r="Z322" s="6"/>
@@ -25190,10 +25069,10 @@
       <c r="T325" s="8"/>
       <c r="U325" s="8"/>
       <c r="V325" s="8"/>
-      <c r="W325" s="8"/>
+      <c r="W325" s="9"/>
       <c r="X325" s="8"/>
-      <c r="Y325" s="8"/>
-      <c r="Z325" s="6"/>
+      <c r="Y325" s="9"/>
+      <c r="Z325" s="9"/>
       <c r="AA325" s="9"/>
       <c r="AB325" s="9"/>
       <c r="AC325" s="9"/>
@@ -25556,7 +25435,7 @@
       <c r="T331" s="8"/>
       <c r="U331" s="8"/>
       <c r="V331" s="8"/>
-      <c r="W331" s="9"/>
+      <c r="W331" s="8"/>
       <c r="X331" s="8"/>
       <c r="Y331" s="9"/>
       <c r="Z331" s="9"/>
@@ -26166,7 +26045,7 @@
       <c r="T341" s="8"/>
       <c r="U341" s="8"/>
       <c r="V341" s="8"/>
-      <c r="W341" s="8"/>
+      <c r="W341" s="9"/>
       <c r="X341" s="8"/>
       <c r="Y341" s="9"/>
       <c r="Z341" s="9"/>
@@ -26203,67 +26082,6 @@
       <c r="BE341" s="6"/>
       <c r="BF341" s="6"/>
       <c r="BG341" s="6"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="6"/>
-      <c r="B342" s="6"/>
-      <c r="C342" s="6"/>
-      <c r="D342" s="6"/>
-      <c r="E342" s="8"/>
-      <c r="F342" s="6"/>
-      <c r="G342" s="8"/>
-      <c r="H342" s="8"/>
-      <c r="I342" s="6"/>
-      <c r="J342" s="6"/>
-      <c r="K342" s="6"/>
-      <c r="L342" s="6"/>
-      <c r="M342" s="8"/>
-      <c r="N342" s="8"/>
-      <c r="O342" s="6"/>
-      <c r="P342" s="6"/>
-      <c r="Q342" s="8"/>
-      <c r="R342" s="6"/>
-      <c r="S342" s="6"/>
-      <c r="T342" s="8"/>
-      <c r="U342" s="8"/>
-      <c r="V342" s="8"/>
-      <c r="W342" s="9"/>
-      <c r="X342" s="8"/>
-      <c r="Y342" s="9"/>
-      <c r="Z342" s="9"/>
-      <c r="AA342" s="9"/>
-      <c r="AB342" s="9"/>
-      <c r="AC342" s="9"/>
-      <c r="AD342" s="8"/>
-      <c r="AE342" s="9"/>
-      <c r="AF342" s="9"/>
-      <c r="AG342" s="9"/>
-      <c r="AH342" s="9"/>
-      <c r="AI342" s="9"/>
-      <c r="AJ342" s="6"/>
-      <c r="AK342" s="9"/>
-      <c r="AL342" s="9"/>
-      <c r="AM342" s="9"/>
-      <c r="AN342" s="8"/>
-      <c r="AO342" s="6"/>
-      <c r="AP342" s="6"/>
-      <c r="AQ342" s="6"/>
-      <c r="AR342" s="6"/>
-      <c r="AS342" s="6"/>
-      <c r="AT342" s="6"/>
-      <c r="AU342" s="6"/>
-      <c r="AV342" s="6"/>
-      <c r="AW342" s="6"/>
-      <c r="AX342" s="6"/>
-      <c r="AY342" s="6"/>
-      <c r="AZ342" s="6"/>
-      <c r="BA342" s="6"/>
-      <c r="BB342" s="6"/>
-      <c r="BC342" s="6"/>
-      <c r="BD342" s="6"/>
-      <c r="BE342" s="6"/>
-      <c r="BF342" s="6"/>
-      <c r="BG342" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -26307,11 +26125,10 @@
     <hyperlink r:id="rId38" ref="E39"/>
     <hyperlink r:id="rId39" ref="E40"/>
     <hyperlink r:id="rId40" ref="E41"/>
-    <hyperlink r:id="rId41" ref="E42"/>
   </hyperlinks>
-  <drawing r:id="rId42"/>
+  <drawing r:id="rId41"/>
   <tableParts count="1">
-    <tablePart r:id="rId44"/>
+    <tablePart r:id="rId43"/>
   </tableParts>
 </worksheet>
 </file>